--- a/StreamRes/ExcelTable/Excel/Condition.xlsx
+++ b/StreamRes/ExcelTable/Excel/Condition.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -55,7 +55,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,7 +62,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,14 +69,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,7 +82,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,7 +89,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,7 +96,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,7 +103,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,14 +110,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +123,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,7 +130,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,14 +137,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,35 +150,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -644,8 +625,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -972,49 +1098,46 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="3" width="24.1166666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
     </row>
